--- a/pysic/ressources/AAA_BB-YYYYXXZZ-N_P-1.4.8.xlsx
+++ b/pysic/ressources/AAA_BB-YYYYXXZZ-N_P-1.4.8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="metadata-core" sheetId="1" state="visible" r:id="rId2"/>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">μg/L</t>
   </si>
   <si>
-    <t xml:space="preserve">ice section height</t>
+    <t xml:space="preserve">ice section height </t>
   </si>
   <si>
     <t xml:space="preserve">melted sample</t>
@@ -1107,7 +1107,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.00"/>
     <numFmt numFmtId="176" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="9"/>
       <name val="Geneva"/>
@@ -1207,13 +1207,6 @@
       <name val="Geneva"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Geneva"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2418,7 +2411,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4707,15 +4700,15 @@
       <formula1>"μg/L,mg/m3,kg/m3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" prompt="salinity is temperature compensated" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:D1 S1:T1 V1:W1" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" prompt="conductivity is not temperature compensated." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E1:E2 C2:D2 I2" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" errorStyle="stop" operator="between" prompt="specific conductance is temperature compensated conductivity" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" errorStyle="stop" operator="between" prompt="salinity is temperature compensated" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1:D1 S1:T1 V1:W1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8484,7 +8477,7 @@
   </sheetPr>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -20229,8 +20222,8 @@
   </sheetPr>
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20257,10 +20250,10 @@
       <c r="C1" s="202"/>
       <c r="D1" s="202"/>
       <c r="E1" s="176"/>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="178"/>
+      <c r="G1" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="178"/>
       <c r="H1" s="141"/>
       <c r="I1" s="177"/>
       <c r="J1" s="177"/>
